--- a/data/Instances/InstancesS/outputS-9.xlsx
+++ b/data/Instances/InstancesS/outputS-9.xlsx
@@ -443,247 +443,247 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>55</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>64</t>
         </is>
       </c>
     </row>
@@ -695,13 +695,13 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -717,27 +717,27 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -753,12 +753,10 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -766,12 +764,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -782,11 +780,11 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
@@ -800,7 +798,9 @@
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -810,20 +810,16 @@
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -845,11 +841,11 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -863,7 +859,9 @@
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -879,14 +877,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -895,9 +893,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -908,7 +904,9 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -924,7 +922,9 @@
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
+      <c r="AN5" t="n">
+        <v>1</v>
+      </c>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -942,41 +942,29 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -984,74 +972,46 @@
       <c r="X6" t="n">
         <v>1</v>
       </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -1059,30 +1019,52 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
         <v>1</v>
       </c>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
@@ -1090,25 +1072,37 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
+      <c r="AN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1</v>
+      </c>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
       <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
+      <c r="AU7" t="n">
+        <v>1</v>
+      </c>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1149,7 +1143,9 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
+      <c r="AN8" t="n">
+        <v>1</v>
+      </c>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1165,12 +1161,10 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -1178,12 +1172,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -1194,11 +1188,11 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -1212,7 +1206,9 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
+      <c r="AN9" t="n">
+        <v>1</v>
+      </c>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1222,20 +1218,16 @@
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -1246,9 +1238,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -1259,11 +1249,11 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -1271,15 +1261,15 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -1289,26 +1279,24 @@
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1324,27 +1312,27 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
+      <c r="AN11" t="n">
+        <v>1</v>
+      </c>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -1354,145 +1342,93 @@
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
+      <c r="AX11" t="n">
+        <v>1</v>
+      </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1500,85 +1436,51 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1</v>
-      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
         <v>1</v>
       </c>
-      <c r="Y13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -1587,27 +1489,23 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1615,16 +1513,16 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
+      <c r="AO14" t="n">
+        <v>1</v>
+      </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
@@ -1639,12 +1537,10 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -1655,9 +1551,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -1668,11 +1562,11 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -1686,7 +1580,9 @@
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
+      <c r="AN15" t="n">
+        <v>1</v>
+      </c>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -1696,15 +1592,13 @@
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1713,9 +1607,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1739,21 +1631,19 @@
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
+      <c r="AN16" t="n">
+        <v>1</v>
+      </c>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -1769,23 +1659,19 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
         <v>1</v>
       </c>
@@ -1794,7 +1680,9 @@
       <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1802,23 +1690,25 @@
         <v>1</v>
       </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
       <c r="T17" t="n">
         <v>1</v>
       </c>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
       <c r="V17" t="n">
         <v>1</v>
       </c>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="n">
-        <v>1</v>
-      </c>
+      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
         <v>1</v>
       </c>
@@ -1829,22 +1719,18 @@
         <v>1</v>
       </c>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
-      <c r="AE17" t="inlineStr"/>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
       <c r="AF17" t="n">
         <v>1</v>
       </c>
-      <c r="AG17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="n">
         <v>1</v>
       </c>
@@ -1853,44 +1739,40 @@
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
       <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="n">
         <v>1</v>
       </c>
-      <c r="AR17" t="inlineStr"/>
+      <c r="AR17" t="n">
+        <v>1</v>
+      </c>
       <c r="AS17" t="n">
         <v>1</v>
       </c>
-      <c r="AT17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1899,25 +1781,27 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>1</v>
-      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -1932,7 +1816,9 @@
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
+      <c r="AO18" t="n">
+        <v>1</v>
+      </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
@@ -1941,20 +1827,16 @@
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -1964,7 +1846,9 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1977,10 +1861,10 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
@@ -1995,7 +1879,9 @@
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
+      <c r="AO19" t="n">
+        <v>1</v>
+      </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
@@ -2010,38 +1896,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>1</v>
       </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -2049,75 +1923,43 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="n">
-        <v>1</v>
-      </c>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -2126,9 +1968,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2144,27 +1984,27 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
+      <c r="AN21" t="n">
+        <v>1</v>
+      </c>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -2180,14 +2020,14 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2196,9 +2036,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -2209,11 +2047,11 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
@@ -2227,7 +2065,9 @@
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
+      <c r="AN22" t="n">
+        <v>1</v>
+      </c>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -2237,46 +2077,30 @@
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -2284,77 +2108,49 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1</v>
-      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
+      <c r="AN23" t="n">
+        <v>1</v>
+      </c>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -2363,7 +2159,9 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2371,17 +2169,15 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="n">
-        <v>1</v>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
@@ -2396,7 +2192,9 @@
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
+      <c r="AO24" t="n">
+        <v>1</v>
+      </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
@@ -2405,89 +2203,127 @@
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1</v>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
         <v>1</v>
       </c>
-      <c r="AA25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>1</v>
+      </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+      <c r="AD25" t="n">
+        <v>1</v>
+      </c>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
+      <c r="AF25" t="n">
+        <v>1</v>
+      </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1</v>
+      </c>
       <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
+      <c r="AQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1</v>
+      </c>
       <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
+      <c r="AU25" t="n">
+        <v>1</v>
+      </c>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2511,23 +2347,19 @@
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -2543,7 +2375,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -2552,11 +2384,11 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2581,16 +2413,16 @@
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
+      <c r="AN27" t="n">
+        <v>1</v>
+      </c>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -2606,12 +2438,10 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -2622,7 +2452,9 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -2634,10 +2466,10 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
@@ -2652,7 +2484,9 @@
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
+      <c r="AO28" t="n">
+        <v>1</v>
+      </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
@@ -2661,21 +2495,19 @@
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -2684,7 +2516,9 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2697,10 +2531,10 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
@@ -2715,7 +2549,9 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
+      <c r="AO29" t="n">
+        <v>1</v>
+      </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
@@ -2724,21 +2560,19 @@
       <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -2747,8 +2581,12 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -2761,9 +2599,7 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
@@ -2778,7 +2614,9 @@
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
+      <c r="AO30" t="n">
+        <v>1</v>
+      </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
@@ -2787,67 +2625,123 @@
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX30" t="inlineStr"/>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
       <c r="Z31" t="n">
         <v>1</v>
       </c>
-      <c r="AA31" t="inlineStr"/>
+      <c r="AA31" t="n">
+        <v>1</v>
+      </c>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
+      <c r="AD31" t="n">
+        <v>1</v>
+      </c>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
+      <c r="AF31" t="n">
+        <v>1</v>
+      </c>
       <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+      <c r="AH31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1</v>
+      </c>
       <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
+      <c r="AL31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1</v>
+      </c>
       <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1</v>
+      </c>
       <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
+      <c r="AU31" t="n">
+        <v>1</v>
+      </c>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="n">
@@ -2858,13 +2752,13 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -2874,24 +2768,22 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
@@ -2906,7 +2798,9 @@
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
+      <c r="AO32" t="n">
+        <v>1</v>
+      </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
@@ -2921,12 +2815,10 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -2934,7 +2826,9 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2944,17 +2838,15 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="n">
-        <v>1</v>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
@@ -2962,15 +2854,15 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
+      <c r="AN33" t="n">
+        <v>1</v>
+      </c>
       <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -2980,34 +2872,44 @@
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
@@ -3015,61 +2917,97 @@
         <v>1</v>
       </c>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1</v>
+      </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
         <v>1</v>
       </c>
-      <c r="AA34" t="inlineStr"/>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
+      <c r="AD34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
       <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
+      <c r="AI34" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1</v>
+      </c>
       <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1</v>
+      </c>
       <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -3081,19 +3019,17 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="n">
+        <v>1</v>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
@@ -3101,7 +3037,9 @@
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
@@ -3116,18 +3054,18 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3151,21 +3089,19 @@
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
+      <c r="AN36" t="n">
+        <v>1</v>
+      </c>
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -3181,20 +3117,22 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -3208,11 +3146,11 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
+      <c r="X37" t="n">
+        <v>1</v>
+      </c>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
@@ -3226,7 +3164,9 @@
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
+      <c r="AN37" t="n">
+        <v>1</v>
+      </c>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -3242,23 +3182,25 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -3269,28 +3211,20 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="n">
-        <v>1</v>
-      </c>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
@@ -3309,13 +3243,13 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -3324,8 +3258,12 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -3338,9 +3276,7 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
@@ -3355,7 +3291,9 @@
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr"/>
+      <c r="AO39" t="n">
+        <v>1</v>
+      </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
@@ -3364,19 +3302,19 @@
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -3385,8 +3323,12 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -3414,7 +3356,9 @@
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
+      <c r="AO40" t="n">
+        <v>1</v>
+      </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
@@ -3429,12 +3373,10 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
@@ -3456,11 +3398,11 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
+      <c r="X41" t="n">
+        <v>1</v>
+      </c>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
@@ -3474,7 +3416,9 @@
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr"/>
+      <c r="AN41" t="n">
+        <v>1</v>
+      </c>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -3484,19 +3428,19 @@
       <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
-      <c r="AX41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -3534,7 +3478,9 @@
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr"/>
+      <c r="AO42" t="n">
+        <v>1</v>
+      </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
@@ -3549,12 +3495,10 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
@@ -3576,7 +3520,9 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
@@ -3592,7 +3538,9 @@
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
+      <c r="AN43" t="n">
+        <v>1</v>
+      </c>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -3602,42 +3550,30 @@
       <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
-      <c r="AX43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -3645,78 +3581,46 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="n">
-        <v>1</v>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>1</v>
-      </c>
+      <c r="X44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS44" t="inlineStr"/>
       <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr"/>
-      <c r="AV44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
-      <c r="AX44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
@@ -3724,7 +3628,9 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -3734,17 +3640,15 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="n">
-        <v>1</v>
-      </c>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
+      <c r="X45" t="n">
+        <v>1</v>
+      </c>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
@@ -3758,7 +3662,9 @@
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr"/>
-      <c r="AN45" t="inlineStr"/>
+      <c r="AN45" t="n">
+        <v>1</v>
+      </c>
       <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
@@ -3768,22 +3674,20 @@
       <c r="AU45" t="inlineStr"/>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
-      <c r="AX45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX45" t="inlineStr"/>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -3799,17 +3703,15 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="n">
-        <v>1</v>
-      </c>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
+      <c r="X46" t="n">
+        <v>1</v>
+      </c>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
@@ -3839,14 +3741,14 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -3866,11 +3768,11 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
+      <c r="X47" t="n">
+        <v>1</v>
+      </c>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
@@ -3884,7 +3786,9 @@
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
-      <c r="AN47" t="inlineStr"/>
+      <c r="AN47" t="n">
+        <v>1</v>
+      </c>
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -3894,31 +3798,33 @@
       <c r="AU47" t="inlineStr"/>
       <c r="AV47" t="inlineStr"/>
       <c r="AW47" t="inlineStr"/>
-      <c r="AX47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -3935,14 +3841,10 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
@@ -3950,7 +3852,9 @@
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr"/>
+      <c r="AO48" t="n">
+        <v>1</v>
+      </c>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
       <c r="AR48" t="inlineStr"/>
@@ -3965,61 +3869,105 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="n">
         <v>1</v>
       </c>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
+      <c r="X49" t="n">
+        <v>1</v>
+      </c>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="n">
         <v>1</v>
       </c>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1</v>
+      </c>
       <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
+      <c r="AD49" t="n">
+        <v>1</v>
+      </c>
       <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
+      <c r="AF49" t="n">
+        <v>1</v>
+      </c>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
+      <c r="AJ49" t="n">
+        <v>1</v>
+      </c>
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr"/>
+      <c r="AM49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1</v>
+      </c>
       <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
+      <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1</v>
+      </c>
       <c r="AT49" t="inlineStr"/>
-      <c r="AU49" t="inlineStr"/>
+      <c r="AU49" t="n">
+        <v>1</v>
+      </c>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
       <c r="AX49" t="inlineStr"/>
@@ -4028,55 +3976,103 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="V50" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1</v>
+      </c>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
+      <c r="Z50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1</v>
+      </c>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
+      <c r="AD50" t="n">
+        <v>1</v>
+      </c>
       <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
+      <c r="AF50" t="n">
+        <v>1</v>
+      </c>
       <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
+      <c r="AH50" t="n">
+        <v>1</v>
+      </c>
       <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
+      <c r="AJ50" t="n">
+        <v>1</v>
+      </c>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
-      <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="inlineStr"/>
+      <c r="AN50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1</v>
+      </c>
       <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr"/>
+      <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1</v>
+      </c>
       <c r="AT50" t="inlineStr"/>
-      <c r="AU50" t="inlineStr"/>
+      <c r="AU50" t="n">
+        <v>1</v>
+      </c>
       <c r="AV50" t="inlineStr"/>
       <c r="AW50" t="inlineStr"/>
       <c r="AX50" t="inlineStr"/>
@@ -4085,25 +4081,25 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -4114,11 +4110,11 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+      <c r="X51" t="n">
+        <v>1</v>
+      </c>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
@@ -4132,7 +4128,9 @@
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
-      <c r="AN51" t="inlineStr"/>
+      <c r="AN51" t="n">
+        <v>1</v>
+      </c>
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
@@ -4142,42 +4140,42 @@
       <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
-      <c r="AX51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX51" t="inlineStr"/>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
@@ -4188,13 +4186,11 @@
       <c r="V52" t="n">
         <v>1</v>
       </c>
-      <c r="W52" t="n">
-        <v>1</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="n">
-        <v>1</v>
-      </c>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
         <v>1</v>
       </c>
@@ -4202,9 +4198,7 @@
         <v>1</v>
       </c>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="n">
         <v>1</v>
       </c>
@@ -4212,7 +4206,9 @@
       <c r="AF52" t="n">
         <v>1</v>
       </c>
-      <c r="AG52" t="inlineStr"/>
+      <c r="AG52" t="n">
+        <v>1</v>
+      </c>
       <c r="AH52" t="n">
         <v>1</v>
       </c>
@@ -4222,12 +4218,14 @@
       <c r="AJ52" t="n">
         <v>1</v>
       </c>
-      <c r="AK52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="inlineStr"/>
+      <c r="AM52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1</v>
+      </c>
       <c r="AO52" t="n">
         <v>1</v>
       </c>
@@ -4235,15 +4233,17 @@
       <c r="AQ52" t="n">
         <v>1</v>
       </c>
-      <c r="AR52" t="inlineStr"/>
+      <c r="AR52" t="n">
+        <v>1</v>
+      </c>
       <c r="AS52" t="n">
         <v>1</v>
       </c>
       <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="inlineStr"/>
-      <c r="AV52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="n">
@@ -4253,45 +4253,51 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="n">
         <v>1</v>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
       <c r="P53" t="n">
         <v>1</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
       <c r="V53" t="n">
         <v>1</v>
       </c>
@@ -4301,7 +4307,9 @@
       <c r="X53" t="n">
         <v>1</v>
       </c>
-      <c r="Y53" t="inlineStr"/>
+      <c r="Y53" t="n">
+        <v>1</v>
+      </c>
       <c r="Z53" t="n">
         <v>1</v>
       </c>
@@ -4309,9 +4317,7 @@
         <v>1</v>
       </c>
       <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="n">
         <v>1</v>
       </c>
@@ -4319,9 +4325,7 @@
       <c r="AF53" t="n">
         <v>1</v>
       </c>
-      <c r="AG53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="n">
         <v>1</v>
@@ -4332,21 +4336,29 @@
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
-      <c r="AN53" t="inlineStr"/>
-      <c r="AO53" t="inlineStr"/>
-      <c r="AP53" t="inlineStr"/>
+      <c r="AN53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ53" t="n">
         <v>1</v>
       </c>
-      <c r="AR53" t="inlineStr"/>
+      <c r="AR53" t="n">
+        <v>1</v>
+      </c>
       <c r="AS53" t="n">
         <v>1</v>
       </c>
       <c r="AT53" t="inlineStr"/>
-      <c r="AU53" t="inlineStr"/>
-      <c r="AV53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="inlineStr"/>
       <c r="AY53" t="n">
@@ -4356,46 +4368,54 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>1</v>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+      <c r="V54" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1</v>
+      </c>
       <c r="Y54" t="n">
         <v>1</v>
       </c>
@@ -4405,23 +4425,21 @@
       <c r="AA54" t="n">
         <v>1</v>
       </c>
-      <c r="AB54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="n">
         <v>1</v>
       </c>
-      <c r="AE54" t="inlineStr"/>
+      <c r="AE54" t="n">
+        <v>1</v>
+      </c>
       <c r="AF54" t="n">
         <v>1</v>
       </c>
-      <c r="AG54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="n">
+        <v>1</v>
+      </c>
       <c r="AI54" t="n">
         <v>1</v>
       </c>
@@ -4431,25 +4449,31 @@
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr"/>
-      <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="inlineStr"/>
+      <c r="AN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1</v>
+      </c>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="n">
         <v>1</v>
       </c>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU54" t="inlineStr"/>
-      <c r="AV54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW54" t="inlineStr"/>
-      <c r="AX54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX54" t="inlineStr"/>
       <c r="AY54" t="n">
         <v>1</v>
       </c>
@@ -4457,215 +4481,121 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="n">
-        <v>1</v>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="n">
-        <v>1</v>
-      </c>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="n">
         <v>1</v>
       </c>
-      <c r="Y55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
-      <c r="AN55" t="inlineStr"/>
+      <c r="AN55" t="n">
+        <v>1</v>
+      </c>
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ55" t="inlineStr"/>
       <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AU55" t="inlineStr"/>
+      <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="inlineStr"/>
       <c r="AX55" t="inlineStr"/>
-      <c r="AY55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="n">
-        <v>1</v>
-      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="n">
-        <v>1</v>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="inlineStr"/>
-      <c r="AL56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
-      <c r="AN56" t="inlineStr"/>
+      <c r="AN56" t="n">
+        <v>1</v>
+      </c>
       <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="inlineStr"/>
       <c r="AU56" t="inlineStr"/>
-      <c r="AV56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV56" t="inlineStr"/>
       <c r="AW56" t="inlineStr"/>
       <c r="AX56" t="inlineStr"/>
       <c r="AY56" t="inlineStr"/>
@@ -4673,27 +4603,29 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
       <c r="D57" t="n">
         <v>1</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
@@ -4702,7 +4634,9 @@
         <v>1</v>
       </c>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -4714,20 +4648,20 @@
         <v>1</v>
       </c>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="n">
-        <v>1</v>
-      </c>
+      <c r="X57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="n">
         <v>1</v>
       </c>
       <c r="AA57" t="n">
         <v>1</v>
       </c>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="n">
         <v>1</v>
       </c>
@@ -4735,42 +4669,40 @@
       <c r="AF57" t="n">
         <v>1</v>
       </c>
-      <c r="AG57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="n">
         <v>1</v>
       </c>
       <c r="AK57" t="inlineStr"/>
-      <c r="AL57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr"/>
-      <c r="AP57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="n">
         <v>1</v>
       </c>
-      <c r="AR57" t="inlineStr"/>
+      <c r="AR57" t="n">
+        <v>1</v>
+      </c>
       <c r="AS57" t="n">
         <v>1</v>
       </c>
-      <c r="AT57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="inlineStr"/>
-      <c r="AX57" t="inlineStr"/>
+      <c r="AX57" t="n">
+        <v>1</v>
+      </c>
       <c r="AY57" t="n">
         <v>1</v>
       </c>
@@ -4819,17 +4751,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4838,13 +4770,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4853,13 +4785,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4868,58 +4800,58 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4928,13 +4860,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4943,73 +4875,73 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5018,28 +4950,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5048,18 +4980,18 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -5069,52 +5001,52 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5123,163 +5055,163 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5288,28 +5220,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5318,28 +5250,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5348,13 +5280,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5363,43 +5295,43 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5408,28 +5340,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5438,28 +5370,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5468,13 +5400,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5483,13 +5415,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5498,13 +5430,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5513,43 +5445,43 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5558,13 +5490,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5573,13 +5505,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5588,13 +5520,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5603,43 +5535,43 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5648,7 +5580,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5695,47 +5627,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02462473197007111</v>
+        <v>0.6306397970166218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9673734694156833</v>
+        <v>0.04749072531924749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.04169163295675743</v>
+        <v>0.5100387712844662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5744,28 +5676,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4938205113034393</v>
+        <v>0.9855948896254633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9446943756341946</v>
+        <v>0.9682675861119546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5774,28 +5706,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.04543688348616375</v>
+        <v>0.8756598621969323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.008846563411849606</v>
+        <v>0.1748232769705101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5804,28 +5736,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8357125933234741</v>
+        <v>0.9717904156473729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9774093089792184</v>
+        <v>0.6420937955872585</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5834,43 +5766,43 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6434758618930498</v>
+        <v>0.02392090376162206</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9921064320432793</v>
+        <v>0.4189589440950594</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6425381802595626</v>
+        <v>0.270847570281919</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5879,13 +5811,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3524868685479742</v>
+        <v>0.03023728036845893</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5894,13 +5826,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9440293351665316</v>
+        <v>0.599908636821933</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5909,28 +5841,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9864257961471414</v>
+        <v>0.02600738880421886</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9737207535963239</v>
+        <v>0.998725777773079</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5939,13 +5871,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.791786575762484</v>
+        <v>0.965878604560215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5954,43 +5886,43 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6494132048271388</v>
+        <v>0.7821430284492574</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.7426051672062797</v>
+        <v>0.03056663078828183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9709082230392451</v>
+        <v>0.948664155260871</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5999,13 +5931,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.4214720403592614</v>
+        <v>0.1070577916698266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -6014,58 +5946,58 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5327921200181577</v>
+        <v>0.3702061912372118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.6271609753397673</v>
+        <v>0.2062007088534228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.156648250003138</v>
+        <v>0.618392857653105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02634314918472172</v>
+        <v>0.02086353478866092</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -6074,58 +6006,58 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.04401840108537192</v>
+        <v>0.02858336256643247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.875640499994103</v>
+        <v>0.601241500365237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.006233642024198261</v>
+        <v>0.9809692450293415</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02727874958208618</v>
+        <v>0.0002214502468514401</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6134,13 +6066,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9969295016846903</v>
+        <v>0.6732066768703578</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6149,43 +6081,43 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.003444207915500031</v>
+        <v>0.08934701902203906</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02866804624306954</v>
+        <v>0.7874245103483151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.7983289046999318</v>
+        <v>0.7805889571520466</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6194,13 +6126,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02524250174594983</v>
+        <v>0.3316012037453515</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6209,28 +6141,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04817207052059176</v>
+        <v>0.2680893376208205</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.8047457929321867</v>
+        <v>0.9124700664736436</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6239,13 +6171,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.8429937995877912</v>
+        <v>0.8263063551432732</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6254,43 +6186,43 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9931096489764022</v>
+        <v>0.2271387672833113</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9938439298925205</v>
+        <v>0.03770146879585845</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5313998365765621</v>
+        <v>0.04766069396583362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6299,13 +6231,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.9370015050214692</v>
+        <v>0.6374223672479187</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6314,13 +6246,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01221070595400485</v>
+        <v>0.03523432087229505</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6329,13 +6261,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.9808756324091368</v>
+        <v>0.03462415220054681</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6344,13 +6276,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.02655138253716209</v>
+        <v>0.03513786298635478</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6359,13 +6291,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.3540097549551903</v>
+        <v>0.9760002104047972</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6374,13 +6306,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9498046084612459</v>
+        <v>0.03693818535000395</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6389,13 +6321,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.03492856420366906</v>
+        <v>0.9714461772423002</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6404,13 +6336,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9978108446670872</v>
+        <v>0.9846843873504172</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6419,13 +6351,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.3564884115224594</v>
+        <v>0.9403047637814044</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6434,7 +6366,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.03911465301401455</v>
+        <v>0.4765994244582132</v>
       </c>
     </row>
   </sheetData>
